--- a/example_data/EPA/label_corrected/000100-01506-20150112_2018-12-07_185647.xlsx
+++ b/example_data/EPA/label_corrected/000100-01506-20150112_2018-12-07_185647.xlsx
@@ -544,7 +544,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -637,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -917,7 +917,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -947,7 +947,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Env warning - species</t>
+          <t>env warning - species</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Env warning - species</t>
+          <t>env warning - species</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>134_Non-agriculture_Use_Requirements</t>
+          <t>134_non-agriculture_use_requirements</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Off Target Movement || Use Restrictions</t>
+          <t>use restrictions || off target movement</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Application Instructions || Safety Procedures</t>
+          <t>safety procedures || application instructions</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation || Application Instructions</t>
+          <t>irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Safety Procedures || Use Restrictions</t>
+          <t>safety procedures || use restrictions</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Irrigation || Use Restrictions</t>
+          <t>use restrictions || irrigation</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Irrigation || Use Restrictions</t>
+          <t>use restrictions || irrigation</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G198" t="inlineStr"/>
